--- a/Project_PCB/Monitoring_TECO/Project Outputs for Monitoring_TECO/Закупка_Monitoring_TECO.xlsx
+++ b/Project_PCB/Monitoring_TECO/Project Outputs for Monitoring_TECO/Закупка_Monitoring_TECO.xlsx
@@ -785,15 +785,9 @@
     <t>15EDGK-3.5-08P</t>
   </si>
   <si>
-    <t>DS1017-14MA2</t>
-  </si>
-  <si>
     <t>Connector IDC</t>
   </si>
   <si>
-    <t>http://www.kosmodrom.com.ua/el.php?name=DS1017-14MA2</t>
-  </si>
-  <si>
     <t>Шлейф плоский</t>
   </si>
   <si>
@@ -803,12 +797,6 @@
     <t>http://www.kosmodrom.com.ua/el.php?name=FLC-14</t>
   </si>
   <si>
-    <t>TP-18</t>
-  </si>
-  <si>
-    <t>http://voron.ua/catalog/001231</t>
-  </si>
-  <si>
     <t>Винт М3х08мм пластик молочный гол. полукруг</t>
   </si>
   <si>
@@ -852,6 +840,18 @@
   </si>
   <si>
     <t>Итого</t>
+  </si>
+  <si>
+    <t>AWP-14ZZ</t>
+  </si>
+  <si>
+    <t>http://www.kosmodrom.com.ua/el.php?name=AWP-14ZZ</t>
+  </si>
+  <si>
+    <t>TP-15</t>
+  </si>
+  <si>
+    <t>http://voron.ua/catalog/001230</t>
   </si>
 </sst>
 </file>
@@ -1052,6 +1052,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1061,7 +1062,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1345,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="I71" sqref="I71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,13 +1376,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3228,11 +3228,11 @@
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4">
@@ -3246,17 +3246,17 @@
         <v>28.5</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4">
@@ -3270,17 +3270,17 @@
         <v>15.75</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
       <c r="B66" s="14" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="15" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="13">
@@ -3290,21 +3290,21 @@
         <v>3</v>
       </c>
       <c r="H66" s="13">
-        <f t="shared" ref="H66:H97" si="2">PRODUCT(F66:G66)</f>
+        <f t="shared" ref="H66:H70" si="2">PRODUCT(F66:G66)</f>
         <v>9</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
       <c r="B67" s="14" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="15" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E67" s="13"/>
       <c r="F67" s="13">
@@ -3318,17 +3318,17 @@
         <v>3</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
       <c r="B68" s="14" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="13">
@@ -3342,13 +3342,13 @@
         <v>3</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
       <c r="B69" s="14" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
@@ -3364,13 +3364,13 @@
         <v>0.6</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="B70" s="18" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
@@ -3386,20 +3386,20 @@
         <v>0.36</v>
       </c>
       <c r="I70" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="20" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="22">
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="19">
         <f>SUM(H2:H70)</f>
         <v>1386.9999999999998</v>
       </c>
@@ -3471,13 +3471,13 @@
     <hyperlink ref="I61" r:id="rId60"/>
     <hyperlink ref="I62" r:id="rId61"/>
     <hyperlink ref="I63" r:id="rId62"/>
-    <hyperlink ref="I64" r:id="rId63"/>
-    <hyperlink ref="I65" r:id="rId64"/>
-    <hyperlink ref="I66" r:id="rId65"/>
-    <hyperlink ref="I68" r:id="rId66"/>
-    <hyperlink ref="I67" r:id="rId67"/>
-    <hyperlink ref="I69" r:id="rId68"/>
-    <hyperlink ref="I70" r:id="rId69"/>
+    <hyperlink ref="I65" r:id="rId63"/>
+    <hyperlink ref="I68" r:id="rId64"/>
+    <hyperlink ref="I67" r:id="rId65"/>
+    <hyperlink ref="I69" r:id="rId66"/>
+    <hyperlink ref="I70" r:id="rId67"/>
+    <hyperlink ref="I64" r:id="rId68"/>
+    <hyperlink ref="I66" r:id="rId69"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId70"/>
